--- a/data/Quilaco.xlsx
+++ b/data/Quilaco.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">

--- a/data/Quilaco.xlsx
+++ b/data/Quilaco.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F29" t="n">

--- a/data/Quilaco.xlsx
+++ b/data/Quilaco.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
